--- a/medicine/Enfance/Rencontre-Ados/Rencontre-Ados.xlsx
+++ b/medicine/Enfance/Rencontre-Ados/Rencontre-Ados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rencontre-Ados est un réseau social francophone destiné aux adolescents et aux individus âgés de 13 à 25 ans. Se présentant comme un site de rencontres, il est essentiellement connu pour les controverses dues aux activités pédophiles.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site internet est créé en 2006 par le belge Thomas Mester[1]. En août 2023, il comptabilise plus de 280 000 utilisateurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site internet est créé en 2006 par le belge Thomas Mester. En août 2023, il comptabilise plus de 280 000 utilisateurs.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Structure du site</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se présente comme un site de rencontres[3],[2] et est essentiellement connu par les controverses dues aux activités pédophiles[4].
-Les rencontres entre adolescents sont permises par une messagerie privée et des discussions publiques sous la forme de forums[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se présente comme un site de rencontres, et est essentiellement connu par les controverses dues aux activités pédophiles.
+Les rencontres entre adolescents sont permises par une messagerie privée et des discussions publiques sous la forme de forums.
 </t>
         </is>
       </c>
@@ -574,15 +590,11 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, Rencontre-Ados fait partie des sites de rencontres pour adolescents épinglés comme inquiétants par les parents, journalistes et psychologues. Ils critiquent notamment le calquage sur les pratiques adultes ainsi que le risque de cyberharcèlement[6]
-Accusations de pédo-criminalité
-Dès 2013, des journalistes s'infiltrent sur le site pour dévoiler une présence abondante d'activités pédophiles[7]. Libération publie aussi une enquête de ce type en 2019, pointant du doigt des conversations à caractère sexuel ainsi que des propositions inappropriés faites aux mineurs[6]. Fin 2021, des journalistes du Figaro et du Monde font les mêmes constats après une infiltration sur le site[8],[9].
-Par ailleurs, plusieurs faits divers en France, en Belgique et au Québec sont liées à des rencontres via Rencontre-Ados[10],[11],[12].
-Le site est néanmoins mis sur le devant de la scène à l'été 2023, lorsque la militante Sabrina Erin Gin publie une alerte sur son compte Instagram pour dénoncer les dérives du site[13]. L'association Young and Safe se saisit de l'affaire et appelle les internautes à signaler le site auprès de la plateforme Pharos[14]. Le 24 août 2023, le ministre délégué au Numérique Jean-Noël Barrot annonce avoir pris en compte ces signalements et avoir saisi la procureure de la République[15]. Google décide de supprimer à la même date l'application Rencontre-Ados de son Play Store pour "non-respect des règles du magasin d'applications"[16].
-Momo Challenge
-Le 5 octobre 2018, un père porte plainte pour « mise en danger de la vie d'autrui » contre les réseaux sociaux Youtube, Whatsapp et Rencontre-Ados[17]. Cette plainte fait suite au décès de son fils, qui aurait participé au Momo Challenge via ces différentes applications[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, Rencontre-Ados fait partie des sites de rencontres pour adolescents épinglés comme inquiétants par les parents, journalistes et psychologues. Ils critiquent notamment le calquage sur les pratiques adultes ainsi que le risque de cyberharcèlement
 </t>
         </is>
       </c>
@@ -608,13 +620,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accusations de pédo-criminalité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 2013, des journalistes s'infiltrent sur le site pour dévoiler une présence abondante d'activités pédophiles. Libération publie aussi une enquête de ce type en 2019, pointant du doigt des conversations à caractère sexuel ainsi que des propositions inappropriés faites aux mineurs. Fin 2021, des journalistes du Figaro et du Monde font les mêmes constats après une infiltration sur le site,.
+Par ailleurs, plusieurs faits divers en France, en Belgique et au Québec sont liées à des rencontres via Rencontre-Ados.
+Le site est néanmoins mis sur le devant de la scène à l'été 2023, lorsque la militante Sabrina Erin Gin publie une alerte sur son compte Instagram pour dénoncer les dérives du site. L'association Young and Safe se saisit de l'affaire et appelle les internautes à signaler le site auprès de la plateforme Pharos. Le 24 août 2023, le ministre délégué au Numérique Jean-Noël Barrot annonce avoir pris en compte ces signalements et avoir saisi la procureure de la République. Google décide de supprimer à la même date l'application Rencontre-Ados de son Play Store pour "non-respect des règles du magasin d'applications".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rencontre-Ados</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rencontre-Ados</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Momo Challenge</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 octobre 2018, un père porte plainte pour « mise en danger de la vie d'autrui » contre les réseaux sociaux Youtube, Whatsapp et Rencontre-Ados. Cette plainte fait suite au décès de son fils, qui aurait participé au Momo Challenge via ces différentes applications.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rencontre-Ados</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rencontre-Ados</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Modération et réglementation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site comporte une section de signalement auprès de plusieurs modérateurs[19]. Selon le fondateur Thomas Mester, leur nombre n'est néanmoins pas suffisant face à la demande[20].
-Etant hébergé en Belgique, le site est soumis au droit belge[21], ce qui permet par exemple d'échapper à la loi française du 7 juillet 2023[22], visant à instaurer une majorité numérique fixée à 15 ans[23].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site comporte une section de signalement auprès de plusieurs modérateurs. Selon le fondateur Thomas Mester, leur nombre n'est néanmoins pas suffisant face à la demande.
+Etant hébergé en Belgique, le site est soumis au droit belge, ce qui permet par exemple d'échapper à la loi française du 7 juillet 2023, visant à instaurer une majorité numérique fixée à 15 ans.
 </t>
         </is>
       </c>
